--- a/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -82,12 +79,12 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -100,54 +97,57 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -157,31 +157,34 @@
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8302872062663186</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6101694915254238</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8297872340425532</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.7890625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.544973544973545</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.7816901408450704</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5232558139534884</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C11">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5033557046979866</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3694444444444445</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7641509433962265</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2341269841269841</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,37 +1261,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.128686327077748</v>
+        <v>0.01127577319587629</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>325</v>
+        <v>3069</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7301587301587301</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,19 +1311,19 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01221566975568661</v>
+        <v>0.01096583719949388</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="F17">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1329,16 +1332,16 @@
         <v>2345</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,28 +1361,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01063486948114728</v>
+        <v>0.006796116504854369</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3070</v>
+        <v>5115</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>0.7209302325581395</v>
@@ -1408,28 +1411,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007403078121955971</v>
+        <v>0.006229903536977492</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="F19">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5095</v>
+        <v>4945</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>0.7083333333333334</v>
@@ -1454,41 +1457,17 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.006035003017501509</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>55</v>
-      </c>
-      <c r="E20">
-        <v>0.45</v>
-      </c>
-      <c r="F20">
-        <v>0.55</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4941</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,15 +1479,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
         <v>27</v>
@@ -1526,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6441176470588236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1552,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.602510460251046</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L23">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1578,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.576271186440678</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M24">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1604,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1630,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5617977528089888</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1656,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5428571428571428</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1682,12 +1661,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>0.54</v>
@@ -1713,16 +1692,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1734,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3205128205128205</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1760,85 +1739,85 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.02838063439065109</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1164</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.006241466744685001</v>
+        <v>0.02418682235195997</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.54</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>5095</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.005034232782923882</v>
+        <v>0.009774436090225564</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N33">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="O33">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>4941</v>
+        <v>2634</v>
       </c>
     </row>
   </sheetData>
